--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexx_esc/DataScience/education/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D65F29-1F12-5E41-B83F-6A2A54DE2DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B4AC4-49CE-B54F-B0EE-CD41FB94BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="4740" windowWidth="20840" windowHeight="15120" activeTab="1" xr2:uid="{B7B3C6C9-6F05-5A41-9AC4-64D3EE961483}"/>
+    <workbookView xWindow="13780" yWindow="1880" windowWidth="20840" windowHeight="15120" xr2:uid="{B7B3C6C9-6F05-5A41-9AC4-64D3EE961483}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Actual</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>TN + FN + TP + FP</t>
+  </si>
+  <si>
+    <t>Predict_1</t>
+  </si>
+  <si>
+    <t>Predict_2</t>
   </si>
 </sst>
 </file>
@@ -207,15 +213,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2F74FB-AAB8-E641-A80B-D65285C85DF7}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="B1:Y29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,26 +552,34 @@
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" customWidth="1"/>
-    <col min="16" max="18" width="3.33203125" customWidth="1"/>
+    <col min="16" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" customWidth="1"/>
+    <col min="24" max="25" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="2:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="V4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>0</v>
       </c>
@@ -578,9 +592,15 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1">
@@ -592,7 +612,7 @@
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="1">
@@ -602,11 +622,23 @@
         <v>2</v>
       </c>
       <c r="O6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
@@ -616,23 +648,34 @@
       <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T7" s="9"/>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>4</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="H9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="N15">
         <v>1</v>
       </c>
@@ -643,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="N16">
         <v>1</v>
       </c>
@@ -721,7 +764,7 @@
       </c>
     </row>
     <row r="23" spans="6:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="N23">
@@ -735,7 +778,7 @@
       </c>
     </row>
     <row r="24" spans="6:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N24">
@@ -785,11 +828,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -799,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5E019B-2DCF-5D4F-8270-E73AD4BE873B}">
   <dimension ref="B4:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,10 +861,10 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
@@ -830,7 +875,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1">
@@ -842,12 +887,12 @@
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
@@ -857,18 +902,18 @@
       <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
